--- a/Packages/fit_helium/res/simulated.xlsx
+++ b/Packages/fit_helium/res/simulated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Documents/FERMI 20144077 Ueda/fit_helium/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Dropbox/FERMI 20144077 Ueda/Packages/fit_helium/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85D1A4A-8963-3E49-B644-B2AE8B6D3FFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415D39C-723E-5242-A392-FFBF4E133E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{C4F1B4B3-A79D-4346-B66B-630AD389D748}"/>
+    <workbookView xWindow="37480" yWindow="420" windowWidth="28040" windowHeight="17440" xr2:uid="{C4F1B4B3-A79D-4346-B66B-630AD389D748}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,17 +92,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -112,16 +120,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -143,15 +148,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F5CCEDD-96F2-2642-8646-AB50901AC730}" name="Table2" displayName="Table2" ref="A1:I11" totalsRowShown="0">
   <autoFilter ref="A1:I11" xr:uid="{594A8D0E-F93F-4F4A-A7ED-EBF2FDF1B055}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8FC45892-56A6-3C4D-BAD1-4CC1DFF39F24}" name="photon (eV)"/>
-    <tableColumn id="2" xr3:uid="{C7B05AC8-F24E-484A-ADD3-DF6B073E18F0}" name="inten_w (W/cm2)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5570F08C-0036-7E42-B423-A5B5744B064D}" name="inten_2w (W/cm2)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{212C6173-857B-F247-87F8-07F6EC6F6A9C}" name="coeff_s" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{AB84CD03-9C0A-544D-9FA9-3B9E9B65790A}" name="coeff_p" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{EAEB9D2A-D229-094B-ADEF-0CD902056E3F}" name="coeff_d" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{48B59F7D-9632-514B-B21D-EDD2E35EDD72}" name="eta_s (rad)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{AD9443C3-2CB6-A949-9C51-05F7C817A19E}" name="eta_p (rad)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{9BD7A1DD-3DE1-7247-88F3-6DCB2FAD333F}" name="eta_d (rad)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8FC45892-56A6-3C4D-BAD1-4CC1DFF39F24}" name="photon (eV)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C7B05AC8-F24E-484A-ADD3-DF6B073E18F0}" name="inten_w (W/cm2)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5570F08C-0036-7E42-B423-A5B5744B064D}" name="inten_2w (W/cm2)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{212C6173-857B-F247-87F8-07F6EC6F6A9C}" name="coeff_s" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AB84CD03-9C0A-544D-9FA9-3B9E9B65790A}" name="coeff_p" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{EAEB9D2A-D229-094B-ADEF-0CD902056E3F}" name="coeff_d" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{48B59F7D-9632-514B-B21D-EDD2E35EDD72}" name="eta_s (rad)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{AD9443C3-2CB6-A949-9C51-05F7C817A19E}" name="eta_p (rad)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{9BD7A1DD-3DE1-7247-88F3-6DCB2FAD333F}" name="eta_d (rad)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,11 +461,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173F2F62-A648-7642-B4D7-4CCE693A345B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -469,8 +476,8 @@
     <col min="8" max="9" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -498,15 +505,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
         <v>14.3</v>
       </c>
       <c r="B2" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C2" s="1">
-        <v>13600000000</v>
+        <v>13400000000</v>
       </c>
       <c r="D2" s="3">
         <v>3.2200000000000002E-3</v>
@@ -527,15 +534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C3" s="1">
-        <v>13400000000</v>
+        <v>13100000000</v>
       </c>
       <c r="D3" s="3">
         <v>2.5300000000000001E-3</v>
@@ -556,15 +563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
         <v>15.9</v>
       </c>
       <c r="B4" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C4" s="1">
-        <v>12500000000</v>
+        <v>12400000000</v>
       </c>
       <c r="D4" s="3">
         <v>1.7700000000000001E-3</v>
@@ -585,15 +592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
         <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C5" s="1">
-        <v>12600000000</v>
+        <v>12300000000</v>
       </c>
       <c r="D5" s="3">
         <v>1.6900000000000001E-3</v>
@@ -614,15 +621,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
         <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C6" s="1">
-        <v>11800000000</v>
+        <v>11600000000</v>
       </c>
       <c r="D6" s="3">
         <v>9.859999999999999E-4</v>
@@ -643,15 +650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
         <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C7" s="1">
-        <v>11300000000</v>
+        <v>11000000000</v>
       </c>
       <c r="D7" s="3">
         <v>3.39E-4</v>
@@ -672,15 +679,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
         <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C8" s="1">
-        <v>11100000000</v>
+        <v>10900000000</v>
       </c>
       <c r="D8" s="3">
         <v>-3.9199999999999999E-4</v>
@@ -701,24 +708,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
         <v>19.100000000000001</v>
       </c>
       <c r="B9" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C9" s="1">
-        <v>11000000000</v>
+        <v>10900000000</v>
       </c>
       <c r="D9" s="3">
-        <v>-6.0099999999999997E-4</v>
+        <v>-4.7600000000000002E-4</v>
       </c>
       <c r="E9" s="4">
-        <v>6.7600000000000004E-3</v>
+        <v>6.8100000000000001E-3</v>
       </c>
       <c r="F9" s="4">
-        <v>-6.7299999999999999E-3</v>
+        <v>-6.79E-3</v>
       </c>
       <c r="G9" s="2">
         <v>4.76</v>
@@ -730,24 +737,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
         <v>19.5</v>
       </c>
       <c r="B10" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C10" s="1">
-        <v>11400000000</v>
+        <v>11200000000</v>
       </c>
       <c r="D10" s="3">
-        <v>-1.0200000000000001E-3</v>
+        <v>-8.5800000000000004E-4</v>
       </c>
       <c r="E10" s="4">
-        <v>6.6899999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>-6.6100000000000004E-3</v>
+        <v>-6.6499999999999997E-3</v>
       </c>
       <c r="G10" s="2">
         <v>4.7300000000000004</v>
@@ -759,24 +766,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
         <v>20.100000000000001</v>
       </c>
       <c r="B11" s="1">
         <v>10000000000000</v>
       </c>
       <c r="C11" s="1">
-        <v>13700000000</v>
+        <v>12800000000</v>
       </c>
       <c r="D11" s="3">
-        <v>-2.1099999999999999E-3</v>
+        <v>-1.75E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>7.0000000000000001E-3</v>
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>-6.6800000000000002E-3</v>
+        <v>-6.62E-3</v>
       </c>
       <c r="G11" s="2">
         <v>4.6900000000000004</v>
